--- a/spreadsheets/Fiora.xlsx
+++ b/spreadsheets/Fiora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D3B45E-A39D-48A7-94DD-4623F4FC81ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A11C1-A1FA-4206-BEDC-91466C3DD068}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="3060" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Champion</t>
   </si>
@@ -407,13 +407,16 @@
   </si>
   <si>
     <t>https://i.imgur.com/hEtQoqr.png</t>
+  </si>
+  <si>
+    <t>discord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,27 +427,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -463,6 +471,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,6 +514,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,7 +807,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -877,11 +894,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>126</v>
+      <c r="A8" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
@@ -889,21 +903,29 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1899,7 +1921,7 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{E047F2A7-D5BC-4693-BC2B-477141CEC59B}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{E047F2A7-D5BC-4693-BC2B-477141CEC59B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
